--- a/WordCards.xlsx
+++ b/WordCards.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="27">
   <si>
     <t>L</t>
   </si>
@@ -25,6 +25,9 @@
     <t>G</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
@@ -35,9 +38,6 @@
   </si>
   <si>
     <t>Ł</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -166,6 +166,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5079365</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>323493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="lego.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2533650"/>
+          <a:ext cx="5079365" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:ALL43"/>
+  <dimension ref="B1:ALL44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,255 +522,246 @@
     </row>
     <row r="2" spans="2:8" ht="200.0" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="200.0" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="200.0" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="200.0" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="200.0" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="200.0" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="200.0" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="200.0" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="200.0" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="200.0" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="200.0" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="200.0" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="200.0" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="200.0" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="200.0" customHeight="1">
@@ -735,13 +769,22 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="200.0" customHeight="1">
@@ -749,22 +792,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="200.0" customHeight="1">
@@ -772,45 +806,42 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="200.0" customHeight="1">
       <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="200.0" customHeight="1">
@@ -818,131 +849,137 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="200.0" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="200.0" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="200.0" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="200.0" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="200.0" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="200.0" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="200.0" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="200.0" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>9</v>
@@ -950,254 +987,275 @@
     </row>
     <row r="29" spans="2:9" ht="200.0" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="200.0" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="200.0" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="200.0" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B34" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="G42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B36" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="200.0" customHeight="1">
+      <c r="B44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="200.0" customHeight="1">
-      <c r="B43" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>